--- a/Delay Test Exp 3.xlsx
+++ b/Delay Test Exp 3.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/d201901_hiroshima-u_ac_jp/Documents/Doctoral Course 2020/Experiments/OOP_Maya/last experiment files/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/d201901_hiroshima-u_ac_jp/Documents/Doctoral Course 2020/Experiments/OOP_Maya/last experiment files/OOP-experiment-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_BE3751A7D5A5422755F96970B502D8EBC1EB9EBA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EBCE05D-BA69-4EA3-BBC7-EC3D6C8156DF}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_BE3751A7D5A5422755F96970B502D8EBC1EB9EBA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC1D2FC-3819-427D-B418-523D0C68D3F0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25365" yWindow="585" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBO.21.22.1 (Presensi 7AB) Reme" sheetId="1" r:id="rId1"/>
     <sheet name="RAW" sheetId="2" r:id="rId2"/>
-    <sheet name="delay score" sheetId="3" r:id="rId3"/>
+    <sheet name="timeinsecond" sheetId="4" r:id="rId3"/>
+    <sheet name="delay score" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'delay score'!$B$2</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'delay score'!$B$3:$B$44</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'delay score'!$B$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'delay score'!$B$3:$B$44</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'delay score'!$E$1:$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'delay score'!$F$3:$F$38</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'delay score'!$E$1:$F$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'delay score'!$F$3:$F$38</definedName>
     <definedName name="delay_score">RAW!$H$1:$H$109</definedName>
     <definedName name="stid">RAW!$B$1:$B$109</definedName>
   </definedNames>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="542">
   <si>
     <t>Nama akhir</t>
   </si>
@@ -1676,6 +1675,24 @@
   </si>
   <si>
     <t>1402018163</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>total_second</t>
   </si>
 </sst>
 </file>
@@ -1718,10 +1735,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1755,12 +1772,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1771,7 +1788,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-D6B2-4B3C-88A8-6C279DFC9A48}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>delay_score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1783,7 +1800,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-D6B2-4B3C-88A8-6C279DFC9A48}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -10571,8 +10588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB110"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20028,14 +20045,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705FB666-35A5-4F83-A6FD-ED1691FFB021}">
   <dimension ref="A1:AB110"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -29486,11 +29503,2645 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370CBC97-538C-4F12-B3CA-493302846105}">
+  <dimension ref="A1:H109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1402020069</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <f>(F2*60)+G2</f>
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1402020066</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">(F3*60)+G3</f>
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1402020035</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1402019043</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <f>(F5*60)+G5</f>
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1402020117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1402020029</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1402017084</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1402019099</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1402020031</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1402020079</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1402017148</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1402020072</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1402020041</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1402020016</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1402017036</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1402020083</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17">
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1402020027</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18">
+        <v>90</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1402017065</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19">
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>54</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1402018185</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20">
+        <v>65</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>49</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1402020043</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>28</v>
+      </c>
+      <c r="G21">
+        <v>59</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1402020057</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22">
+        <v>85</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1402019036</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23">
+        <v>70</v>
+      </c>
+      <c r="F23">
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <v>59</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1402019048</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <v>27</v>
+      </c>
+      <c r="G24">
+        <v>55</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1402020034</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1402017066</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26">
+        <v>65</v>
+      </c>
+      <c r="F26">
+        <v>27</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1402020101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>27</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1402020033</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>75</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1402020090</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29">
+        <v>65</v>
+      </c>
+      <c r="F29">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1402020064</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1402020070</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31">
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>29</v>
+      </c>
+      <c r="G31">
+        <v>46</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1402020059</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32">
+        <v>80</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1402019040</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1402017049</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>28</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1402020133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>28</v>
+      </c>
+      <c r="G35">
+        <v>39</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1402020102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36">
+        <v>45</v>
+      </c>
+      <c r="F36">
+        <v>29</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1402020114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37">
+        <v>80</v>
+      </c>
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1402020039</v>
+      </c>
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38">
+        <v>85</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1402020076</v>
+      </c>
+      <c r="B39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39">
+        <v>90</v>
+      </c>
+      <c r="F39">
+        <v>29</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1402020023</v>
+      </c>
+      <c r="B40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="F40">
+        <v>28</v>
+      </c>
+      <c r="G40">
+        <v>42</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1402018119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>21</v>
+      </c>
+      <c r="G41">
+        <v>22</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1402019045</v>
+      </c>
+      <c r="B42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42">
+        <v>75</v>
+      </c>
+      <c r="F42">
+        <v>29</v>
+      </c>
+      <c r="G42">
+        <v>56</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1402020116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43">
+        <v>85</v>
+      </c>
+      <c r="F43">
+        <v>28</v>
+      </c>
+      <c r="G43">
+        <v>17</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1402020080</v>
+      </c>
+      <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44">
+        <v>90</v>
+      </c>
+      <c r="F44">
+        <v>22</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1402020052</v>
+      </c>
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D45">
+        <v>60</v>
+      </c>
+      <c r="F45">
+        <v>27</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1402020008</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46">
+        <v>90</v>
+      </c>
+      <c r="F46">
+        <v>29</v>
+      </c>
+      <c r="G46">
+        <v>59</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1402020067</v>
+      </c>
+      <c r="B47" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <v>29</v>
+      </c>
+      <c r="G47">
+        <v>31</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1402016052</v>
+      </c>
+      <c r="B48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48">
+        <v>45</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>32</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1402020135</v>
+      </c>
+      <c r="B49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" t="s">
+        <v>247</v>
+      </c>
+      <c r="D49">
+        <v>55</v>
+      </c>
+      <c r="F49">
+        <v>29</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1402020112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50">
+        <v>85</v>
+      </c>
+      <c r="F50">
+        <v>25</v>
+      </c>
+      <c r="G50">
+        <v>49</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1402020081</v>
+      </c>
+      <c r="B51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51">
+        <v>90</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1402020007</v>
+      </c>
+      <c r="B52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52">
+        <v>35</v>
+      </c>
+      <c r="F52">
+        <v>27</v>
+      </c>
+      <c r="G52">
+        <v>8</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1402020103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" t="s">
+        <v>264</v>
+      </c>
+      <c r="D53">
+        <v>85</v>
+      </c>
+      <c r="F53">
+        <v>24</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1402018187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54">
+        <v>55</v>
+      </c>
+      <c r="F54">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1402020087</v>
+      </c>
+      <c r="B55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55">
+        <v>80</v>
+      </c>
+      <c r="F55">
+        <v>29</v>
+      </c>
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1402018229</v>
+      </c>
+      <c r="B56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56">
+        <v>35</v>
+      </c>
+      <c r="F56">
+        <v>29</v>
+      </c>
+      <c r="G56">
+        <v>44</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1402020063</v>
+      </c>
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57">
+        <v>90</v>
+      </c>
+      <c r="F57">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1402020137</v>
+      </c>
+      <c r="B58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58">
+        <v>45</v>
+      </c>
+      <c r="F58">
+        <v>29</v>
+      </c>
+      <c r="G58">
+        <v>34</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1402020019</v>
+      </c>
+      <c r="B59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59">
+        <v>80</v>
+      </c>
+      <c r="F59">
+        <v>27</v>
+      </c>
+      <c r="G59">
+        <v>34</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1402020098</v>
+      </c>
+      <c r="B60" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" t="s">
+        <v>291</v>
+      </c>
+      <c r="D60">
+        <v>70</v>
+      </c>
+      <c r="F60">
+        <v>23</v>
+      </c>
+      <c r="G60">
+        <v>48</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1402020053</v>
+      </c>
+      <c r="B61" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61">
+        <v>45</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <v>26</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1402020107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62">
+        <v>85</v>
+      </c>
+      <c r="F62">
+        <v>29</v>
+      </c>
+      <c r="G62">
+        <v>53</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1402020074</v>
+      </c>
+      <c r="B63" t="s">
+        <v>290</v>
+      </c>
+      <c r="C63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63">
+        <v>60</v>
+      </c>
+      <c r="F63">
+        <v>28</v>
+      </c>
+      <c r="G63">
+        <v>50</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1402020062</v>
+      </c>
+      <c r="B64" t="s">
+        <v>290</v>
+      </c>
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64">
+        <v>90</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1402020065</v>
+      </c>
+      <c r="B65" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65">
+        <v>85</v>
+      </c>
+      <c r="F65">
+        <v>28</v>
+      </c>
+      <c r="G65">
+        <v>22</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1402020095</v>
+      </c>
+      <c r="B66" t="s">
+        <v>290</v>
+      </c>
+      <c r="C66" t="s">
+        <v>315</v>
+      </c>
+      <c r="D66">
+        <v>75</v>
+      </c>
+      <c r="F66">
+        <v>24</v>
+      </c>
+      <c r="G66">
+        <v>40</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1402017019</v>
+      </c>
+      <c r="B67" t="s">
+        <v>290</v>
+      </c>
+      <c r="C67" t="s">
+        <v>319</v>
+      </c>
+      <c r="D67">
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <v>19</v>
+      </c>
+      <c r="G67">
+        <v>34</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H110" si="1">(F67*60)+G67</f>
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1402020097</v>
+      </c>
+      <c r="B68" t="s">
+        <v>290</v>
+      </c>
+      <c r="C68" t="s">
+        <v>324</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <v>16</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1402020134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>329</v>
+      </c>
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69">
+        <v>80</v>
+      </c>
+      <c r="F69">
+        <v>30</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1402020032</v>
+      </c>
+      <c r="B70" t="s">
+        <v>329</v>
+      </c>
+      <c r="C70" t="s">
+        <v>334</v>
+      </c>
+      <c r="D70">
+        <v>80</v>
+      </c>
+      <c r="F70">
+        <v>29</v>
+      </c>
+      <c r="G70">
+        <v>21</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1402020030</v>
+      </c>
+      <c r="B71" t="s">
+        <v>329</v>
+      </c>
+      <c r="C71" t="s">
+        <v>338</v>
+      </c>
+      <c r="D71">
+        <v>95</v>
+      </c>
+      <c r="F71">
+        <v>26</v>
+      </c>
+      <c r="G71">
+        <v>55</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1402019074</v>
+      </c>
+      <c r="B72" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" t="s">
+        <v>343</v>
+      </c>
+      <c r="D72">
+        <v>80</v>
+      </c>
+      <c r="F72">
+        <v>27</v>
+      </c>
+      <c r="G72">
+        <v>28</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1402020054</v>
+      </c>
+      <c r="B73" t="s">
+        <v>342</v>
+      </c>
+      <c r="C73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73">
+        <v>55</v>
+      </c>
+      <c r="F73">
+        <v>24</v>
+      </c>
+      <c r="G73">
+        <v>37</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1402020073</v>
+      </c>
+      <c r="B74" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D74">
+        <v>55</v>
+      </c>
+      <c r="F74">
+        <v>29</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1402020005</v>
+      </c>
+      <c r="B75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C75" t="s">
+        <v>353</v>
+      </c>
+      <c r="D75">
+        <v>75</v>
+      </c>
+      <c r="F75">
+        <v>28</v>
+      </c>
+      <c r="G75">
+        <v>41</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1402020061</v>
+      </c>
+      <c r="B76" t="s">
+        <v>342</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="F76">
+        <v>30</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1402020058</v>
+      </c>
+      <c r="B77" t="s">
+        <v>342</v>
+      </c>
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77">
+        <v>55</v>
+      </c>
+      <c r="F77">
+        <v>30</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1402020021</v>
+      </c>
+      <c r="B78" t="s">
+        <v>342</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>60</v>
+      </c>
+      <c r="F78">
+        <v>30</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1402020115</v>
+      </c>
+      <c r="B79" t="s">
+        <v>342</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79">
+        <v>70</v>
+      </c>
+      <c r="F79">
+        <v>29</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1402020025</v>
+      </c>
+      <c r="B80" t="s">
+        <v>370</v>
+      </c>
+      <c r="C80" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80">
+        <v>50</v>
+      </c>
+      <c r="F80">
+        <v>29</v>
+      </c>
+      <c r="G80">
+        <v>49</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1402019086</v>
+      </c>
+      <c r="B81" t="s">
+        <v>370</v>
+      </c>
+      <c r="C81" t="s">
+        <v>374</v>
+      </c>
+      <c r="D81">
+        <v>70</v>
+      </c>
+      <c r="F81">
+        <v>21</v>
+      </c>
+      <c r="G81">
+        <v>9</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1402019028</v>
+      </c>
+      <c r="B82" t="s">
+        <v>370</v>
+      </c>
+      <c r="C82" t="s">
+        <v>379</v>
+      </c>
+      <c r="D82">
+        <v>60</v>
+      </c>
+      <c r="F82">
+        <v>29</v>
+      </c>
+      <c r="G82">
+        <v>54</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1402018076</v>
+      </c>
+      <c r="B83" t="s">
+        <v>370</v>
+      </c>
+      <c r="C83" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83">
+        <v>60</v>
+      </c>
+      <c r="F83">
+        <v>29</v>
+      </c>
+      <c r="G83">
+        <v>59</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1402020113</v>
+      </c>
+      <c r="B84" t="s">
+        <v>370</v>
+      </c>
+      <c r="C84" t="s">
+        <v>386</v>
+      </c>
+      <c r="D84">
+        <v>85</v>
+      </c>
+      <c r="F84">
+        <v>27</v>
+      </c>
+      <c r="G84">
+        <v>43</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1402019046</v>
+      </c>
+      <c r="B85" t="s">
+        <v>370</v>
+      </c>
+      <c r="C85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85">
+        <v>80</v>
+      </c>
+      <c r="F85">
+        <v>30</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1402020128</v>
+      </c>
+      <c r="B86" t="s">
+        <v>370</v>
+      </c>
+      <c r="C86" t="s">
+        <v>393</v>
+      </c>
+      <c r="D86">
+        <v>30</v>
+      </c>
+      <c r="F86">
+        <v>28</v>
+      </c>
+      <c r="G86">
+        <v>33</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1402020089</v>
+      </c>
+      <c r="B87" t="s">
+        <v>397</v>
+      </c>
+      <c r="C87" t="s">
+        <v>398</v>
+      </c>
+      <c r="D87">
+        <v>95</v>
+      </c>
+      <c r="F87">
+        <v>19</v>
+      </c>
+      <c r="G87">
+        <v>42</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1402020124</v>
+      </c>
+      <c r="B88" t="s">
+        <v>397</v>
+      </c>
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88">
+        <v>60</v>
+      </c>
+      <c r="F88">
+        <v>29</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1402019005</v>
+      </c>
+      <c r="B89" t="s">
+        <v>397</v>
+      </c>
+      <c r="C89" t="s">
+        <v>405</v>
+      </c>
+      <c r="D89">
+        <v>65</v>
+      </c>
+      <c r="F89">
+        <v>29</v>
+      </c>
+      <c r="G89">
+        <v>23</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1402020088</v>
+      </c>
+      <c r="B90" t="s">
+        <v>397</v>
+      </c>
+      <c r="C90" t="s">
+        <v>409</v>
+      </c>
+      <c r="D90">
+        <v>70</v>
+      </c>
+      <c r="F90">
+        <v>23</v>
+      </c>
+      <c r="G90">
+        <v>11</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1402019038</v>
+      </c>
+      <c r="B91" t="s">
+        <v>397</v>
+      </c>
+      <c r="C91" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91">
+        <v>60</v>
+      </c>
+      <c r="F91">
+        <v>30</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1402019071</v>
+      </c>
+      <c r="B92" t="s">
+        <v>397</v>
+      </c>
+      <c r="C92" t="s">
+        <v>417</v>
+      </c>
+      <c r="D92">
+        <v>85</v>
+      </c>
+      <c r="F92">
+        <v>26</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1402019069</v>
+      </c>
+      <c r="B93" t="s">
+        <v>397</v>
+      </c>
+      <c r="C93" t="s">
+        <v>421</v>
+      </c>
+      <c r="D93">
+        <v>80</v>
+      </c>
+      <c r="F93">
+        <v>22</v>
+      </c>
+      <c r="G93">
+        <v>54</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1402019024</v>
+      </c>
+      <c r="B94" t="s">
+        <v>397</v>
+      </c>
+      <c r="C94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94">
+        <v>80</v>
+      </c>
+      <c r="F94">
+        <v>30</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1402019009</v>
+      </c>
+      <c r="B95" t="s">
+        <v>428</v>
+      </c>
+      <c r="C95" t="s">
+        <v>429</v>
+      </c>
+      <c r="D95">
+        <v>85</v>
+      </c>
+      <c r="F95">
+        <v>18</v>
+      </c>
+      <c r="G95">
+        <v>39</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1402020132</v>
+      </c>
+      <c r="B96" t="s">
+        <v>428</v>
+      </c>
+      <c r="C96" t="s">
+        <v>231</v>
+      </c>
+      <c r="D96">
+        <v>65</v>
+      </c>
+      <c r="F96">
+        <v>27</v>
+      </c>
+      <c r="G96">
+        <v>10</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1402020111</v>
+      </c>
+      <c r="B97" t="s">
+        <v>428</v>
+      </c>
+      <c r="C97" t="s">
+        <v>315</v>
+      </c>
+      <c r="D97">
+        <v>80</v>
+      </c>
+      <c r="F97">
+        <v>24</v>
+      </c>
+      <c r="G97">
+        <v>40</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1402019001</v>
+      </c>
+      <c r="B98" t="s">
+        <v>439</v>
+      </c>
+      <c r="C98" t="s">
+        <v>440</v>
+      </c>
+      <c r="D98">
+        <v>40</v>
+      </c>
+      <c r="F98">
+        <v>27</v>
+      </c>
+      <c r="G98">
+        <v>39</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1402020075</v>
+      </c>
+      <c r="B99" t="s">
+        <v>439</v>
+      </c>
+      <c r="C99" t="s">
+        <v>445</v>
+      </c>
+      <c r="D99">
+        <v>90</v>
+      </c>
+      <c r="F99">
+        <v>21</v>
+      </c>
+      <c r="G99">
+        <v>35</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1402018198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>449</v>
+      </c>
+      <c r="C100" t="s">
+        <v>450</v>
+      </c>
+      <c r="D100">
+        <v>60</v>
+      </c>
+      <c r="F100">
+        <v>23</v>
+      </c>
+      <c r="G100">
+        <v>21</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1402019008</v>
+      </c>
+      <c r="B101" t="s">
+        <v>449</v>
+      </c>
+      <c r="C101" t="s">
+        <v>454</v>
+      </c>
+      <c r="D101">
+        <v>45</v>
+      </c>
+      <c r="F101">
+        <v>22</v>
+      </c>
+      <c r="G101">
+        <v>6</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1402020086</v>
+      </c>
+      <c r="B102" t="s">
+        <v>449</v>
+      </c>
+      <c r="C102" t="s">
+        <v>458</v>
+      </c>
+      <c r="D102">
+        <v>65</v>
+      </c>
+      <c r="F102">
+        <v>26</v>
+      </c>
+      <c r="G102">
+        <v>56</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="1"/>
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1402020138</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>462</v>
+      </c>
+      <c r="D103">
+        <v>60</v>
+      </c>
+      <c r="F103">
+        <v>18</v>
+      </c>
+      <c r="G103">
+        <v>17</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1402018221</v>
+      </c>
+      <c r="B104" t="s">
+        <v>466</v>
+      </c>
+      <c r="C104" t="s">
+        <v>467</v>
+      </c>
+      <c r="D104">
+        <v>50</v>
+      </c>
+      <c r="F104">
+        <v>25</v>
+      </c>
+      <c r="G104">
+        <v>16</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="1"/>
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1402019077</v>
+      </c>
+      <c r="B105" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" t="s">
+        <v>471</v>
+      </c>
+      <c r="D105">
+        <v>30</v>
+      </c>
+      <c r="F105">
+        <v>16</v>
+      </c>
+      <c r="G105">
+        <v>14</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="1"/>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1402020092</v>
+      </c>
+      <c r="B106" t="s">
+        <v>475</v>
+      </c>
+      <c r="C106" t="s">
+        <v>476</v>
+      </c>
+      <c r="D106">
+        <v>65</v>
+      </c>
+      <c r="F106">
+        <v>21</v>
+      </c>
+      <c r="G106">
+        <v>48</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="1"/>
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1402019021</v>
+      </c>
+      <c r="B107" t="s">
+        <v>480</v>
+      </c>
+      <c r="C107" t="s">
+        <v>481</v>
+      </c>
+      <c r="D107">
+        <v>65</v>
+      </c>
+      <c r="F107">
+        <v>17</v>
+      </c>
+      <c r="G107">
+        <v>31</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="1"/>
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1402019098</v>
+      </c>
+      <c r="B108" t="s">
+        <v>180</v>
+      </c>
+      <c r="C108" t="s">
+        <v>485</v>
+      </c>
+      <c r="D108">
+        <v>90</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108">
+        <v>22</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="1"/>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1402020056</v>
+      </c>
+      <c r="B109" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" t="s">
+        <v>489</v>
+      </c>
+      <c r="D109">
+        <v>35</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+      <c r="G109">
+        <v>4</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AF4328-7BAA-4BFC-B75E-3273BD7E490A}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29501,14 +32152,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -29541,7 +32192,7 @@
         <f>VLOOKUP(E3,RAW!$B$2:$H$109,7,FALSE)</f>
         <v>85</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>362</v>
       </c>
     </row>
@@ -29560,7 +32211,7 @@
         <f>VLOOKUP(E4,RAW!$B$2:$H$109,7,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>443</v>
       </c>
     </row>
@@ -29579,7 +32230,7 @@
         <f>VLOOKUP(E5,RAW!$B$2:$H$109,7,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -29598,7 +32249,7 @@
         <f>VLOOKUP(E6,RAW!$B$2:$H$109,7,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -29617,7 +32268,7 @@
         <f>VLOOKUP(E7,RAW!$B$2:$H$109,7,FALSE)</f>
         <v>85</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -29636,7 +32287,7 @@
         <f>VLOOKUP(E8,RAW!$B$2:$H$109,7,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>535</v>
       </c>
     </row>

--- a/Delay Test Exp 3.xlsx
+++ b/Delay Test Exp 3.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/d201901_hiroshima-u_ac_jp/Documents/Doctoral Course 2020/Experiments/OOP_Maya/last experiment files/OOP-experiment-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_BE3751A7D5A5422755F96970B502D8EBC1EB9EBA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC1D2FC-3819-427D-B418-523D0C68D3F0}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="11_BE3751A7D5A5422755F96970B502D8EBC1EB9EBA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD0D0C62-23DB-4D84-890A-5A084ADB2081}"/>
   <bookViews>
-    <workbookView xWindow="-25365" yWindow="585" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1305" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBO.21.22.1 (Presensi 7AB) Reme" sheetId="1" r:id="rId1"/>
     <sheet name="RAW" sheetId="2" r:id="rId2"/>
     <sheet name="timeinsecond" sheetId="4" r:id="rId3"/>
     <sheet name="delay score" sheetId="3" r:id="rId4"/>
+    <sheet name="summarization" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'delay score'!$B$2</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'delay score'!$B$3:$B$44</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'delay score'!$E$1:$F$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'delay score'!$F$3:$F$38</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'delay score'!$B$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'delay score'!$B$3:$B$44</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'delay score'!$E$1:$F$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'delay score'!$F$3:$F$38</definedName>
     <definedName name="delay_score">RAW!$H$1:$H$109</definedName>
     <definedName name="stid">RAW!$B$1:$B$109</definedName>
   </definedNames>
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="610">
   <si>
     <t>Nama akhir</t>
   </si>
@@ -1693,17 +1698,228 @@
   </si>
   <si>
     <t>total_second</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>NPM</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>stu58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>stu59</t>
+  </si>
+  <si>
+    <t>stu60</t>
+  </si>
+  <si>
+    <t>stu61</t>
+  </si>
+  <si>
+    <t>stu62</t>
+  </si>
+  <si>
+    <t>stu63</t>
+  </si>
+  <si>
+    <t>stu64</t>
+  </si>
+  <si>
+    <t>stu65</t>
+  </si>
+  <si>
+    <t>stu66</t>
+  </si>
+  <si>
+    <t>stu67</t>
+  </si>
+  <si>
+    <t>stu68</t>
+  </si>
+  <si>
+    <t>stu69</t>
+  </si>
+  <si>
+    <t>stu70</t>
+  </si>
+  <si>
+    <t>stu71</t>
+  </si>
+  <si>
+    <t>stu72</t>
+  </si>
+  <si>
+    <t>stu73</t>
+  </si>
+  <si>
+    <t>stu74</t>
+  </si>
+  <si>
+    <t>stu75</t>
+  </si>
+  <si>
+    <t>stu76</t>
+  </si>
+  <si>
+    <t>stu77</t>
+  </si>
+  <si>
+    <t>stu78</t>
+  </si>
+  <si>
+    <t>stu79</t>
+  </si>
+  <si>
+    <t>stu80</t>
+  </si>
+  <si>
+    <t>stu81</t>
+  </si>
+  <si>
+    <t>stu82</t>
+  </si>
+  <si>
+    <t>stu83</t>
+  </si>
+  <si>
+    <t>stu84</t>
+  </si>
+  <si>
+    <t>stu85</t>
+  </si>
+  <si>
+    <t>stu86</t>
+  </si>
+  <si>
+    <t>stu87</t>
+  </si>
+  <si>
+    <t>stu88</t>
+  </si>
+  <si>
+    <t>stu89</t>
+  </si>
+  <si>
+    <t>stu90</t>
+  </si>
+  <si>
+    <t>stu91</t>
+  </si>
+  <si>
+    <t>Mochamad Amin Luthfi</t>
+  </si>
+  <si>
+    <t>stu92</t>
+  </si>
+  <si>
+    <t>stu93</t>
+  </si>
+  <si>
+    <t>stu94</t>
+  </si>
+  <si>
+    <t>stu95</t>
+  </si>
+  <si>
+    <t>stu96</t>
+  </si>
+  <si>
+    <t>stu97</t>
+  </si>
+  <si>
+    <t>Aliffina Saskia Bahri</t>
+  </si>
+  <si>
+    <t>stu98</t>
+  </si>
+  <si>
+    <t>stu99</t>
+  </si>
+  <si>
+    <t>stu100</t>
+  </si>
+  <si>
+    <t>stu101</t>
+  </si>
+  <si>
+    <t>stu102</t>
+  </si>
+  <si>
+    <t>stu103</t>
+  </si>
+  <si>
+    <t>stu104</t>
+  </si>
+  <si>
+    <t>stu105</t>
+  </si>
+  <si>
+    <t>stu106</t>
+  </si>
+  <si>
+    <t>stu107</t>
+  </si>
+  <si>
+    <t>stu108</t>
+  </si>
+  <si>
+    <t>Kevin Darmawan</t>
+  </si>
+  <si>
+    <t>stu109</t>
+  </si>
+  <si>
+    <t>stu110</t>
+  </si>
+  <si>
+    <t>stu111</t>
+  </si>
+  <si>
+    <t>Mochammad Dinda Widianto</t>
+  </si>
+  <si>
+    <t>stu112</t>
+  </si>
+  <si>
+    <t>stu113</t>
+  </si>
+  <si>
+    <t>stu114</t>
+  </si>
+  <si>
+    <t>user lookup</t>
+  </si>
+  <si>
+    <t>not matching user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1729,19 +1945,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{14D524E3-8FED-41E5-8872-F785FFE18328}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -29504,19 +29723,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370CBC97-538C-4F12-B3CA-493302846105}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>531</v>
       </c>
@@ -29538,8 +29758,14 @@
       <c r="H1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1402020069</v>
       </c>
@@ -29562,8 +29788,20 @@
         <f>(F2*60)+G2</f>
         <v>1524</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="str" cm="1">
+        <f t="array" ref="I2:I109">_xlfn.XLOOKUP(A2:A109,summarization!C2:C58,summarization!A2:A58,"")</f>
+        <v/>
+      </c>
+      <c r="J2">
+        <f>IF(I2="",A2,"")</f>
+        <v>1402020069</v>
+      </c>
+      <c r="K2" t="str">
+        <f>_xlfn.CONCAT(I2:J2)</f>
+        <v>1402020069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1402020066</v>
       </c>
@@ -29586,8 +29824,19 @@
         <f t="shared" ref="H3:H66" si="0">(F3*60)+G3</f>
         <v>1766</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">IF(I3="",A3,"")</f>
+        <v>1402020066</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="2">_xlfn.CONCAT(I3:J3)</f>
+        <v>1402020066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1402020035</v>
       </c>
@@ -29610,8 +29859,19 @@
         <f t="shared" si="0"/>
         <v>1711</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="str">
+        <v>stu89</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>stu89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1402019043</v>
       </c>
@@ -29634,8 +29894,19 @@
         <f>(F5*60)+G5</f>
         <v>1692</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <v>stu113</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>stu113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1402020117</v>
       </c>
@@ -29658,8 +29929,19 @@
         <f t="shared" si="0"/>
         <v>1716</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1402020117</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1402020029</v>
       </c>
@@ -29682,8 +29964,19 @@
         <f t="shared" si="0"/>
         <v>1624</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1402020029</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1402017084</v>
       </c>
@@ -29706,8 +29999,19 @@
         <f t="shared" si="0"/>
         <v>1325</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <v>stu67</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>stu67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1402019099</v>
       </c>
@@ -29730,8 +30034,19 @@
         <f t="shared" si="0"/>
         <v>1802</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>1402019099</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>1402019099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1402020031</v>
       </c>
@@ -29754,8 +30069,19 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="str">
+        <v>stu98</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>stu98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1402020079</v>
       </c>
@@ -29778,8 +30104,19 @@
         <f t="shared" si="0"/>
         <v>936</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="str">
+        <v>stu96</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>stu96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1402017148</v>
       </c>
@@ -29802,8 +30139,19 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="str">
+        <v>stu102</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
+        <v>stu102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1402020072</v>
       </c>
@@ -29826,8 +30174,19 @@
         <f t="shared" si="0"/>
         <v>1769</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1402020072</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1402020041</v>
       </c>
@@ -29850,8 +30209,19 @@
         <f t="shared" si="0"/>
         <v>1801</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1402020041</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1402020016</v>
       </c>
@@ -29874,8 +30244,19 @@
         <f t="shared" si="0"/>
         <v>1801</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="str">
+        <v>stu95</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>stu95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1402017036</v>
       </c>
@@ -29898,8 +30279,19 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>1402017036</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v>1402017036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1402020083</v>
       </c>
@@ -29922,8 +30314,19 @@
         <f t="shared" si="0"/>
         <v>1743</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="str">
+        <v>stu64</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="2"/>
+        <v>stu64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1402020027</v>
       </c>
@@ -29946,8 +30349,19 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>1402020027</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1402017065</v>
       </c>
@@ -29970,8 +30384,19 @@
         <f t="shared" si="0"/>
         <v>1554</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>1402017065</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="2"/>
+        <v>1402017065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1402018185</v>
       </c>
@@ -29994,8 +30419,19 @@
         <f t="shared" si="0"/>
         <v>1789</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="str">
+        <v>stu112</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v>stu112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1402020043</v>
       </c>
@@ -30018,8 +30454,19 @@
         <f t="shared" si="0"/>
         <v>1739</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="str">
+        <v>stu74</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
+        <v>stu74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1402020057</v>
       </c>
@@ -30042,8 +30489,19 @@
         <f t="shared" si="0"/>
         <v>1328</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="str">
+        <v>stu58</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v>stu58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1402019036</v>
       </c>
@@ -30066,8 +30524,19 @@
         <f t="shared" si="0"/>
         <v>1799</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="str">
+        <v>stu83</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>stu83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1402019048</v>
       </c>
@@ -30090,8 +30559,19 @@
         <f t="shared" si="0"/>
         <v>1675</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="str">
+        <v>stu105</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="2"/>
+        <v>stu105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1402020034</v>
       </c>
@@ -30114,8 +30594,19 @@
         <f t="shared" si="0"/>
         <v>1477</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="str">
+        <v>stu99</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="2"/>
+        <v>stu99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1402017066</v>
       </c>
@@ -30138,8 +30629,19 @@
         <f t="shared" si="0"/>
         <v>1640</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1402017066</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v>1402017066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1402020101</v>
       </c>
@@ -30162,8 +30664,19 @@
         <f t="shared" si="0"/>
         <v>1632</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>1402020101</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1402020033</v>
       </c>
@@ -30186,8 +30699,19 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>1402020033</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1402020090</v>
       </c>
@@ -30210,8 +30734,19 @@
         <f t="shared" si="0"/>
         <v>1627</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>1402020090</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020090</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1402020064</v>
       </c>
@@ -30234,8 +30769,19 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>1402020064</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1402020070</v>
       </c>
@@ -30258,8 +30804,19 @@
         <f t="shared" si="0"/>
         <v>1786</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>1402020070</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020070</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1402020059</v>
       </c>
@@ -30282,8 +30839,19 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="str">
+        <v>stu69</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="2"/>
+        <v>stu69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1402019040</v>
       </c>
@@ -30306,8 +30874,19 @@
         <f t="shared" si="0"/>
         <v>1042</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="str">
+        <v>stu81</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="2"/>
+        <v>stu81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1402017049</v>
       </c>
@@ -30330,8 +30909,19 @@
         <f t="shared" si="0"/>
         <v>1695</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>1402017049</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="2"/>
+        <v>1402017049</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1402020133</v>
       </c>
@@ -30354,8 +30944,19 @@
         <f t="shared" si="0"/>
         <v>1719</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="str">
+        <v>stu68</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="2"/>
+        <v>stu68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1402020102</v>
       </c>
@@ -30378,8 +30979,19 @@
         <f t="shared" si="0"/>
         <v>1756</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="str">
+        <v>stu76</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="2"/>
+        <v>stu76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1402020114</v>
       </c>
@@ -30402,8 +31014,19 @@
         <f t="shared" si="0"/>
         <v>1752</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>1402020114</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1402020039</v>
       </c>
@@ -30426,8 +31049,19 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>1402020039</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020039</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1402020076</v>
       </c>
@@ -30450,8 +31084,19 @@
         <f t="shared" si="0"/>
         <v>1744</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>1402020076</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020076</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1402020023</v>
       </c>
@@ -30474,8 +31119,19 @@
         <f t="shared" si="0"/>
         <v>1722</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="str">
+        <v>stu79</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="2"/>
+        <v>stu79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1402018119</v>
       </c>
@@ -30498,8 +31154,19 @@
         <f t="shared" si="0"/>
         <v>1282</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="str">
+        <v>stu94</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="2"/>
+        <v>stu94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1402019045</v>
       </c>
@@ -30522,8 +31189,19 @@
         <f t="shared" si="0"/>
         <v>1796</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="str">
+        <v>stu66</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="2"/>
+        <v>stu66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1402020116</v>
       </c>
@@ -30546,8 +31224,19 @@
         <f t="shared" si="0"/>
         <v>1697</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="str">
+        <v>stu62</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="2"/>
+        <v>stu62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1402020080</v>
       </c>
@@ -30570,8 +31259,19 @@
         <f t="shared" si="0"/>
         <v>1340</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="str">
+        <v>stu59</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="2"/>
+        <v>stu59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1402020052</v>
       </c>
@@ -30594,8 +31294,19 @@
         <f t="shared" si="0"/>
         <v>1630</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>1402020052</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020052</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1402020008</v>
       </c>
@@ -30618,8 +31329,19 @@
         <f t="shared" si="0"/>
         <v>1799</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="str">
+        <v>stu65</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="2"/>
+        <v>stu65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1402020067</v>
       </c>
@@ -30642,8 +31364,19 @@
         <f t="shared" si="0"/>
         <v>1771</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>1402020067</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020067</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1402016052</v>
       </c>
@@ -30666,8 +31399,19 @@
         <f t="shared" si="0"/>
         <v>1232</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>1402016052</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="2"/>
+        <v>1402016052</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1402020135</v>
       </c>
@@ -30690,8 +31434,19 @@
         <f t="shared" si="0"/>
         <v>1740</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="str">
+        <v>stu87</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="2"/>
+        <v>stu87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1402020112</v>
       </c>
@@ -30714,8 +31469,19 @@
         <f t="shared" si="0"/>
         <v>1549</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="str">
+        <v>stu70</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="2"/>
+        <v>stu70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1402020081</v>
       </c>
@@ -30738,8 +31504,19 @@
         <f t="shared" si="0"/>
         <v>1801</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="str">
+        <v/>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>1402020081</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020081</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1402020007</v>
       </c>
@@ -30762,8 +31539,19 @@
         <f t="shared" si="0"/>
         <v>1628</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="str">
+        <v/>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>1402020007</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1402020103</v>
       </c>
@@ -30786,8 +31574,19 @@
         <f t="shared" si="0"/>
         <v>1446</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="str">
+        <v>stu72</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="2"/>
+        <v>stu72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1402018187</v>
       </c>
@@ -30810,8 +31609,19 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="str">
+        <v/>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>1402018187</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="2"/>
+        <v>1402018187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1402020087</v>
       </c>
@@ -30834,8 +31644,19 @@
         <f t="shared" si="0"/>
         <v>1749</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="str">
+        <v/>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>1402020087</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020087</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1402018229</v>
       </c>
@@ -30858,8 +31679,19 @@
         <f t="shared" si="0"/>
         <v>1784</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="str">
+        <v>stu109</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="2"/>
+        <v>stu109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1402020063</v>
       </c>
@@ -30882,8 +31714,19 @@
         <f t="shared" si="0"/>
         <v>1801</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="str">
+        <v>stu78</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="2"/>
+        <v>stu78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1402020137</v>
       </c>
@@ -30906,8 +31749,19 @@
         <f t="shared" si="0"/>
         <v>1774</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="str">
+        <v>stu86</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="2"/>
+        <v>stu86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1402020019</v>
       </c>
@@ -30930,8 +31784,19 @@
         <f t="shared" si="0"/>
         <v>1654</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="str">
+        <v/>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>1402020019</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1402020098</v>
       </c>
@@ -30954,8 +31819,19 @@
         <f t="shared" si="0"/>
         <v>1428</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="str">
+        <v>stu82</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="2"/>
+        <v>stu82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1402020053</v>
       </c>
@@ -30978,8 +31854,19 @@
         <f t="shared" si="0"/>
         <v>1826</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="str">
+        <v/>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>1402020053</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020053</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1402020107</v>
       </c>
@@ -31002,8 +31889,19 @@
         <f t="shared" si="0"/>
         <v>1793</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="str">
+        <v/>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>1402020107</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1402020074</v>
       </c>
@@ -31026,8 +31924,19 @@
         <f t="shared" si="0"/>
         <v>1730</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="str">
+        <v/>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>1402020074</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020074</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1402020062</v>
       </c>
@@ -31050,8 +31959,19 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" t="str">
+        <v>stu63</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="2"/>
+        <v>stu63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1402020065</v>
       </c>
@@ -31074,8 +31994,19 @@
         <f t="shared" si="0"/>
         <v>1702</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" t="str">
+        <v/>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>1402020065</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="2"/>
+        <v>1402020065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1402020095</v>
       </c>
@@ -31098,8 +32029,19 @@
         <f t="shared" si="0"/>
         <v>1480</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" t="str">
+        <v>stu100</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="2"/>
+        <v>stu100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1402017019</v>
       </c>
@@ -31119,11 +32061,22 @@
         <v>34</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H110" si="1">(F67*60)+G67</f>
+        <f t="shared" ref="H67:H109" si="3">(F67*60)+G67</f>
         <v>1174</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" t="str">
+        <v>stu104</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J109" si="4">IF(I67="",A67,"")</f>
+        <v/>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K109" si="5">_xlfn.CONCAT(I67:J67)</f>
+        <v>stu104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1402020097</v>
       </c>
@@ -31143,11 +32096,22 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>961</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" t="str">
+        <v/>
+      </c>
+      <c r="J68">
+        <f t="shared" si="4"/>
+        <v>1402020097</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020097</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1402020134</v>
       </c>
@@ -31167,11 +32131,22 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1801</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" t="str">
+        <v>stu101</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="5"/>
+        <v>stu101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1402020032</v>
       </c>
@@ -31191,11 +32166,22 @@
         <v>21</v>
       </c>
       <c r="H70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1761</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" t="str">
+        <v>stu60</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="5"/>
+        <v>stu60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1402020030</v>
       </c>
@@ -31215,11 +32201,22 @@
         <v>55</v>
       </c>
       <c r="H71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1615</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" t="str">
+        <v/>
+      </c>
+      <c r="J71">
+        <f t="shared" si="4"/>
+        <v>1402020030</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020030</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1402019074</v>
       </c>
@@ -31239,11 +32236,22 @@
         <v>28</v>
       </c>
       <c r="H72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1648</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" t="str">
+        <v/>
+      </c>
+      <c r="J72">
+        <f t="shared" si="4"/>
+        <v>1402019074</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="5"/>
+        <v>1402019074</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1402020054</v>
       </c>
@@ -31263,11 +32271,22 @@
         <v>37</v>
       </c>
       <c r="H73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1477</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" t="str">
+        <v/>
+      </c>
+      <c r="J73">
+        <f t="shared" si="4"/>
+        <v>1402020054</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020054</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1402020073</v>
       </c>
@@ -31287,11 +32306,22 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1740</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" t="str">
+        <v>stu77</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="5"/>
+        <v>stu77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1402020005</v>
       </c>
@@ -31311,11 +32341,22 @@
         <v>41</v>
       </c>
       <c r="H75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1721</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" t="str">
+        <v>stu80</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="5"/>
+        <v>stu80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1402020061</v>
       </c>
@@ -31335,11 +32376,22 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" t="str">
+        <v>stu71</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="5"/>
+        <v>stu71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1402020058</v>
       </c>
@@ -31359,11 +32411,22 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" t="str">
+        <v/>
+      </c>
+      <c r="J77">
+        <f t="shared" si="4"/>
+        <v>1402020058</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020058</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1402020021</v>
       </c>
@@ -31383,11 +32446,22 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" t="str">
+        <v>stu93</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="5"/>
+        <v>stu93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1402020115</v>
       </c>
@@ -31407,11 +32481,22 @@
         <v>5</v>
       </c>
       <c r="H79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" t="str">
+        <v/>
+      </c>
+      <c r="J79">
+        <f t="shared" si="4"/>
+        <v>1402020115</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1402020025</v>
       </c>
@@ -31431,11 +32516,22 @@
         <v>49</v>
       </c>
       <c r="H80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1789</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" t="str">
+        <v/>
+      </c>
+      <c r="J80">
+        <f t="shared" si="4"/>
+        <v>1402020025</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020025</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1402019086</v>
       </c>
@@ -31455,11 +32551,22 @@
         <v>9</v>
       </c>
       <c r="H81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1269</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" t="str">
+        <v>stu75</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="5"/>
+        <v>stu75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1402019028</v>
       </c>
@@ -31479,11 +32586,22 @@
         <v>54</v>
       </c>
       <c r="H82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1794</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" t="str">
+        <v>stu90</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="5"/>
+        <v>stu90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1402018076</v>
       </c>
@@ -31503,11 +32621,22 @@
         <v>59</v>
       </c>
       <c r="H83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1799</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" t="str">
+        <v>stu107</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="5"/>
+        <v>stu107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1402020113</v>
       </c>
@@ -31527,11 +32656,22 @@
         <v>43</v>
       </c>
       <c r="H84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1663</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" t="str">
+        <v/>
+      </c>
+      <c r="J84">
+        <f t="shared" si="4"/>
+        <v>1402020113</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1402019046</v>
       </c>
@@ -31551,11 +32691,22 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" t="str">
+        <v/>
+      </c>
+      <c r="J85">
+        <f t="shared" si="4"/>
+        <v>1402019046</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="5"/>
+        <v>1402019046</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1402020128</v>
       </c>
@@ -31575,11 +32726,22 @@
         <v>33</v>
       </c>
       <c r="H86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1713</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" t="str">
+        <v/>
+      </c>
+      <c r="J86">
+        <f t="shared" si="4"/>
+        <v>1402020128</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1402020089</v>
       </c>
@@ -31599,11 +32761,22 @@
         <v>42</v>
       </c>
       <c r="H87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1182</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" t="str">
+        <v/>
+      </c>
+      <c r="J87">
+        <f t="shared" si="4"/>
+        <v>1402020089</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020089</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1402020124</v>
       </c>
@@ -31623,11 +32796,22 @@
         <v>3</v>
       </c>
       <c r="H88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1743</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" t="str">
+        <v/>
+      </c>
+      <c r="J88">
+        <f t="shared" si="4"/>
+        <v>1402020124</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1402019005</v>
       </c>
@@ -31647,11 +32831,22 @@
         <v>23</v>
       </c>
       <c r="H89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1763</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" t="str">
+        <v/>
+      </c>
+      <c r="J89">
+        <f t="shared" si="4"/>
+        <v>1402019005</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="5"/>
+        <v>1402019005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1402020088</v>
       </c>
@@ -31671,11 +32866,22 @@
         <v>11</v>
       </c>
       <c r="H90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1391</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" t="str">
+        <v/>
+      </c>
+      <c r="J90">
+        <f t="shared" si="4"/>
+        <v>1402020088</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020088</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1402019038</v>
       </c>
@@ -31695,11 +32901,22 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" t="str">
+        <v/>
+      </c>
+      <c r="J91">
+        <f t="shared" si="4"/>
+        <v>1402019038</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="5"/>
+        <v>1402019038</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1402019071</v>
       </c>
@@ -31719,11 +32936,22 @@
         <v>2</v>
       </c>
       <c r="H92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1562</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" t="str">
+        <v>stu84</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="5"/>
+        <v>stu84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1402019069</v>
       </c>
@@ -31743,11 +32971,22 @@
         <v>54</v>
       </c>
       <c r="H93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1374</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" t="str">
+        <v>stu73</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="5"/>
+        <v>stu73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1402019024</v>
       </c>
@@ -31767,11 +33006,22 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1801</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" t="str">
+        <v/>
+      </c>
+      <c r="J94">
+        <f t="shared" si="4"/>
+        <v>1402019024</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="5"/>
+        <v>1402019024</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1402019009</v>
       </c>
@@ -31791,11 +33041,22 @@
         <v>39</v>
       </c>
       <c r="H95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1119</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" t="str">
+        <v>stu88</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="5"/>
+        <v>stu88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1402020132</v>
       </c>
@@ -31815,11 +33076,22 @@
         <v>10</v>
       </c>
       <c r="H96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1630</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" t="str">
+        <v>stu85</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="5"/>
+        <v>stu85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1402020111</v>
       </c>
@@ -31839,11 +33111,22 @@
         <v>40</v>
       </c>
       <c r="H97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1480</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" t="str">
+        <v/>
+      </c>
+      <c r="J97">
+        <f t="shared" si="4"/>
+        <v>1402020111</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1402019001</v>
       </c>
@@ -31863,11 +33146,22 @@
         <v>39</v>
       </c>
       <c r="H98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1659</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" t="str">
+        <v>stu92</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="5"/>
+        <v>stu92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1402020075</v>
       </c>
@@ -31887,11 +33181,22 @@
         <v>35</v>
       </c>
       <c r="H99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1295</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" t="str">
+        <v>stu114</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="5"/>
+        <v>stu114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1402018198</v>
       </c>
@@ -31911,11 +33216,22 @@
         <v>21</v>
       </c>
       <c r="H100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1401</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" t="str">
+        <v/>
+      </c>
+      <c r="J100">
+        <f t="shared" si="4"/>
+        <v>1402018198</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="5"/>
+        <v>1402018198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1402019008</v>
       </c>
@@ -31935,11 +33251,22 @@
         <v>6</v>
       </c>
       <c r="H101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1326</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" t="str">
+        <v>stu106</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="5"/>
+        <v>stu106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1402020086</v>
       </c>
@@ -31959,11 +33286,22 @@
         <v>56</v>
       </c>
       <c r="H102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1616</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" t="str">
+        <v/>
+      </c>
+      <c r="J102">
+        <f t="shared" si="4"/>
+        <v>1402020086</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020086</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1402020138</v>
       </c>
@@ -31983,11 +33321,22 @@
         <v>17</v>
       </c>
       <c r="H103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1097</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" t="str">
+        <v>stu103</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="5"/>
+        <v>stu103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1402018221</v>
       </c>
@@ -32007,11 +33356,22 @@
         <v>16</v>
       </c>
       <c r="H104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1516</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" t="str">
+        <v>stu110</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="5"/>
+        <v>stu110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1402019077</v>
       </c>
@@ -32031,11 +33391,22 @@
         <v>14</v>
       </c>
       <c r="H105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>974</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" t="str">
+        <v/>
+      </c>
+      <c r="J105">
+        <f t="shared" si="4"/>
+        <v>1402019077</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="5"/>
+        <v>1402019077</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1402020092</v>
       </c>
@@ -32055,11 +33426,22 @@
         <v>48</v>
       </c>
       <c r="H106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1308</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" t="str">
+        <v>stu61</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="5"/>
+        <v>stu61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1402019021</v>
       </c>
@@ -32079,11 +33461,22 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1051</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" t="str">
+        <v/>
+      </c>
+      <c r="J107">
+        <f t="shared" si="4"/>
+        <v>1402019021</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="5"/>
+        <v>1402019021</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1402019098</v>
       </c>
@@ -32103,11 +33496,22 @@
         <v>22</v>
       </c>
       <c r="H108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>682</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" t="str">
+        <v/>
+      </c>
+      <c r="J108">
+        <f t="shared" si="4"/>
+        <v>1402019098</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="5"/>
+        <v>1402019098</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1402020056</v>
       </c>
@@ -32127,8 +33531,19 @@
         <v>4</v>
       </c>
       <c r="H109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>364</v>
+      </c>
+      <c r="I109" t="str">
+        <v/>
+      </c>
+      <c r="J109">
+        <f t="shared" si="4"/>
+        <v>1402020056</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="5"/>
+        <v>1402020056</v>
       </c>
     </row>
   </sheetData>
@@ -32141,7 +33556,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -32834,4 +34249,922 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EBDCF1-0161-4F00-AE07-E27B7EC02B20}">
+  <dimension ref="A1:J58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="25.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1402020057</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f t="shared" ref="D2:D58" si="0">A2</f>
+        <v>stu58</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1402020080</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1402020032</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1402020092</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1402020116</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1402020062</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1402020083</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1402020008</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu65</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1402019045</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu66</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1402017084</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1402020133</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1402020059</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu69</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1402020112</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1402020061</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1402020103</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1402019069</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1402020043</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1402019086</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1402020102</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1402020073</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1402020063</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1402020023</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1402020005</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1402019040</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1402020098</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1402019036</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1402019071</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1402020132</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1402020137</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1402020135</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1402019009</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1402020035</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1402019028</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1402020026</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1402019001</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1402020021</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1402018119</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1402020016</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1402020079</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1402018023</v>
+      </c>
+      <c r="D41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1402020031</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1402020034</v>
+      </c>
+      <c r="D43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1402020095</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1402020134</v>
+      </c>
+      <c r="D45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1402017148</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1402020138</v>
+      </c>
+      <c r="D47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1402017019</v>
+      </c>
+      <c r="D48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1402019048</v>
+      </c>
+      <c r="D49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1402019008</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1402018076</v>
+      </c>
+      <c r="D51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1402018163</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu108</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1402018229</v>
+      </c>
+      <c r="D53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1402018221</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1402018173</v>
+      </c>
+      <c r="D55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1402018185</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1402019043</v>
+      </c>
+      <c r="D57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1402020075</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stu114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Delay Test Exp 3.xlsx
+++ b/Delay Test Exp 3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/d201901_hiroshima-u_ac_jp/Documents/Doctoral Course 2020/Experiments/OOP_Maya/last experiment files/OOP-experiment-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F3FE38-B8F2-4CE5-B857-023B236D6BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688B6389-A493-4648-8CBE-23A6FF115885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4225" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4227" uniqueCount="614">
   <si>
     <t>Nama akhir</t>
   </si>
@@ -1907,12 +1907,18 @@
   <si>
     <t>uid_clean</t>
   </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>no pre_post test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1925,8 +1931,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1939,6 +1952,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1949,24 +1967,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{14D524E3-8FED-41E5-8872-F785FFE18328}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -45243,7 +45284,7 @@
   <dimension ref="A1:AB110"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -54701,10 +54742,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370CBC97-538C-4F12-B3CA-493302846105}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="N103" sqref="N103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -54715,7 +54756,7 @@
     <col min="11" max="11" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>531</v>
       </c>
@@ -54749,8 +54790,11 @@
       <c r="M1" t="s">
         <v>611</v>
       </c>
+      <c r="N1" t="s">
+        <v>612</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1402020069</v>
       </c>
@@ -54788,8 +54832,11 @@
         <f t="array" ref="L2:L109">_xlfn.XLOOKUP(K2:K109,'user_userid in PrePostTest'!E1:E78,'user_userid in PrePostTest'!F1:F78,"")</f>
         <v>447</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>613</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1402020066</v>
       </c>
@@ -54826,7 +54873,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1402020035</v>
       </c>
@@ -54863,7 +54910,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1402019043</v>
       </c>
@@ -54900,7 +54947,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1402020117</v>
       </c>
@@ -54937,7 +54984,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1402020029</v>
       </c>
@@ -54974,7 +55021,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1402017084</v>
       </c>
@@ -55011,7 +55058,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1402019099</v>
       </c>
@@ -55048,7 +55095,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1402020031</v>
       </c>
@@ -55085,7 +55132,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1402020079</v>
       </c>
@@ -55122,7 +55169,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1402017148</v>
       </c>
@@ -55159,7 +55206,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1402020072</v>
       </c>
@@ -55196,7 +55243,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1402020041</v>
       </c>
@@ -55233,7 +55280,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1402020016</v>
       </c>
@@ -55270,7 +55317,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1402017036</v>
       </c>
@@ -58749,6 +58796,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L2:L109">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(L2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -58759,13 +58811,13 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -59940,6 +59992,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E43:E78 H43:H51">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -59949,7 +60004,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -59960,14 +60015,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -60648,8 +60703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EBDCF1-0161-4F00-AE07-E27B7EC02B20}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
